--- a/docs/Classification Reports/sgdc.xlsx
+++ b/docs/Classification Reports/sgdc.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6576086956521739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.7960526315789473</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6835443037974684</v>
+        <v>0.7202380952380952</v>
       </c>
       <c r="E2" t="n">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8209876543209876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.8471337579617835</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.8338557993730407</v>
       </c>
       <c r="E3" t="n">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.851063829787234</v>
+        <v>0.9020979020979022</v>
       </c>
       <c r="E4" t="n">
-        <v>86</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7228915662650602</v>
+        <v>0.7053571428571429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5374149659863946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6741573033707866</v>
+        <v>0.6100386100386102</v>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="E6" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7506108467483379</v>
+        <v>0.7731010492639141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7516749875991002</v>
+        <v>0.7691086722151147</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7481373051848181</v>
+        <v>0.766557601686912</v>
       </c>
       <c r="E7" t="n">
-        <v>336</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7502606665156022</v>
+        <v>0.7722599747932937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7470371419924614</v>
+        <v>0.7666155409258858</v>
       </c>
       <c r="E8" t="n">
-        <v>336</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Classification Reports/sgdc.xlsx
+++ b/docs/Classification Reports/sgdc.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6576086956521739</v>
+        <v>0.6453488372093024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7960526315789473</v>
+        <v>0.7655172413793103</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7202380952380952</v>
+        <v>0.7003154574132492</v>
       </c>
       <c r="E2" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8209876543209876</v>
+        <v>0.8482758620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8471337579617835</v>
+        <v>0.831081081081081</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8338557993730407</v>
+        <v>0.8395904436860068</v>
       </c>
       <c r="E3" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9084507042253521</v>
+        <v>0.9072847682119205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.9072847682119205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9020979020979022</v>
+        <v>0.9072847682119205</v>
       </c>
       <c r="E4" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7053571428571429</v>
+        <v>0.6742424242424242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5374149659863946</v>
+        <v>0.5705128205128205</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6100386100386102</v>
+        <v>0.6180555555555556</v>
       </c>
       <c r="E5" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.77</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.77</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.77</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.77</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7731010492639141</v>
+        <v>0.7687879729331532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7691086722151147</v>
+        <v>0.7685989777962832</v>
       </c>
       <c r="D7" t="n">
-        <v>0.766557601686912</v>
+        <v>0.7663115562166829</v>
       </c>
       <c r="E7" t="n">
         <v>600</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7722599747932937</v>
+        <v>0.7688370452722899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.77</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7666155409258858</v>
+        <v>0.7653696560951947</v>
       </c>
       <c r="E8" t="n">
         <v>600</v>
